--- a/data/dataThongtinhanghoa_case14.xlsx
+++ b/data/dataThongtinhanghoa_case14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Soluong</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Nồi cơm điện i9</t>
   </si>
   <si>
-    <t>Nồi cơm điện i10</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>100000</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
   </si>
   <si>
     <t>Xoa</t>
@@ -448,7 +442,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -538,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -558,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -578,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -598,10 +592,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -618,10 +612,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -638,10 +632,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -658,10 +652,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -678,10 +672,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -698,31 +692,17 @@
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
